--- a/Text/Ludwig_Sarah.xlsx
+++ b/Text/Ludwig_Sarah.xlsx
@@ -741,7 +741,7 @@
     <col min="6" max="6" style="15" width="46.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="40.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/Text/Ludwig_Sarah.xlsx
+++ b/Text/Ludwig_Sarah.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t>Timecode</t>
   </si>
@@ -46,149 +46,65 @@
     <t>Pro Bild / for each image</t>
   </si>
   <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>In der Adaption wird der konventionelle und traditionelle Stil von Kirchenräumen (insbesondere das Element von bunten Glas-Fenstern) mit dem eher neuartigen Design der Raumfahrt (runde Formen, weiße und sterile Flächen) kombiniert. Die Adaption greift den Aspekt von Gottheiten und der irdischen, in diesem Fall christlichen Verehrung dieser auf, was auch im Film eine zentrale Thematik ist.</t>
-    </r>
+    <t/>
+  </si>
+  <si>
+    <t>Szenen</t>
+  </si>
+  <si>
+    <t>Sarah Ludwig</t>
+  </si>
+  <si>
+    <t>a wide vast desert landscape with cliffs with biomimetic biomorphic bionic shapes emerging from the rough ground, intricate details, luminous, ethereal, edgy, sculptural, cinematic, photorealistic</t>
+  </si>
+  <si>
+    <t>close up shot of a herd of apes sitting in a wide vast desert landscape with cliffs with biomimetic biomorphic bionic shapes emerging from the rough ground, intricate details, luminous, ethereal, edgy, sculptural, cinematic, photorealistic</t>
+  </si>
+  <si>
+    <t>Objekt</t>
+  </si>
+  <si>
+    <t>a modern futuristic spacecraft designed by Ross Lovegrove with intricate organic bionic biomorphic features structures and details floating in dark space, otherworldly looking, ethereal, Dynamic Composition, gloomy atmosphere, cinematic, typical science fiction color palette, wide angle shot</t>
+  </si>
+  <si>
+    <t>abstract sculptural fluid bionic biomimetic space suit shoes with fine intricate details placed in a minimalistic Bauhaus room designed by Marcel Breuer, luminous, ethereal, edgy, mysterious, misty, foggy, gloomy, cinematic, photorealistic, experimental film, wide angle shot</t>
+  </si>
+  <si>
+    <t>a wide corridor inside a minimalistic Bauhaus Style plane with seats to each side, a women standing in the middle wearing a fluid organic bionic suit and hat with biomorphic abstract otherworldly structure and intricate details designed by Ross Lovegrove, the women is looking directly into the camera, dynamic composition, gloomy atmosphere, foggy, misty, experimental cinematography, photorealistic, wide angle central shot, luminous, ethereal, edgy, sculptural, cinematic</t>
+  </si>
+  <si>
+    <t>a mysterious landscape interior with bionic biomorphic features, appearing as colossal, luminescent sculpture that morph and shift shape, Dynamic Composition, experimental cinematography, experimental film, photorealistic, wide angle shot,</t>
   </si>
   <si>
     <t>Objekte</t>
   </si>
   <si>
-    <t>Gläserner_Monolith</t>
-  </si>
-  <si>
-    <t>Merle Reimers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">broken glass effect, stunning, mythical, beautiful, colorful glass, no furniture, instead of the black square there is beautiful glass, mystical, light and shadow play </t>
-  </si>
-  <si>
-    <t>Gläserner_Knochen1 (Serie 1/3)</t>
-  </si>
-  <si>
-    <t>a bone made of colorful stained glass depicting abstract shapes and patterns.</t>
-  </si>
-  <si>
-    <t>Gläserner_Knochen2 (Serie 2/3)</t>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>a ape made of colorful stained glass depicting abstract shapes and patterns. The light passes through the glass.</t>
-    </r>
-  </si>
-  <si>
-    <t>Gläserner_Knochen3 (Serie 3/3)</t>
-  </si>
-  <si>
-    <t>a leg bone made of colorful stained glass depicting abstract shapes and patterns. The light passes through the glass.</t>
-  </si>
-  <si>
-    <t>Gläsernes_Raumschiff1 (Serie 1/3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">broken glass effect, stunning, mythical, beautiful, a spaceship that looks like a organic, modern church, beautiful, colorful glass </t>
-  </si>
-  <si>
-    <t>Gläsernes_Raumschiff3 (Serie 3/3)</t>
-  </si>
-  <si>
-    <t>broken glass effect, stunning, mythical, beautiful, a spaceship that looks like a organic, modern church, beautiful, colorful glass</t>
-  </si>
-  <si>
-    <t>Gläserner_Stuhl1 (Serie 1/3)</t>
-  </si>
-  <si>
-    <t>A digital rendering of a sculptural colorful glass chair set in a futuristic space. intricate glasswork, delicate and intricate design. Broken Glass effect, futuristic, stunning, something that even doesn't exist, energy, molecular, textures, iridescent and luminescent scales, breathtaking beauty, pure perfection, unforgettable, impressive, breathtaking beauty, Volumetric light, auras, rays, vivid colors reflects,</t>
-  </si>
-  <si>
-    <t>Gläserner_Stuhl2 (Serie 2/3)</t>
-  </si>
-  <si>
-    <t>The chair is made of a transparent material that allows light to pass through. decorated with colorful stained glass depicting abstract shapes and patterns. The stained glass is reminiscent of the windows of a church.</t>
-  </si>
-  <si>
-    <t>Gläserner_Stuhl3(Serie 3/3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The chair is made of a transparent material that allows light to pass through. decorated with colorful stained glass depicting abstract shapes and patterns. The stained glass is reminiscent of the windows of a church.</t>
-  </si>
-  <si>
-    <t>Szene</t>
-  </si>
-  <si>
-    <t>Gläserner_Aufenthaltsraum1 (Serie 1/4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A large conference room in a futuristic building. The walls, ceiling and floor are made of a transparent material that allows light to pass through. The walls are decorated with colorful stained glass depicting abstract shapes and patterns. The stained glass is reminiscent of the windows of a church and bathes the room in a mystical light. </t>
-  </si>
-  <si>
-    <t>Gläserner_Aufenthaltsraum2 (Serie 2/4)</t>
-  </si>
-  <si>
-    <t>Gläserner_Aufenthaltsraum3 (Serie 3/4)</t>
-  </si>
-  <si>
-    <t>Gläserner_Aufenthaltsraum4 (Serie 4/4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">broken glass effect, stunning, mythical, beautiful, a spaceship interior that looks like a organic, modern church, looks like a conversation pit, beautiful, colorful glass, colorful </t>
-  </si>
-  <si>
-    <t>Gläsernes_Büro</t>
-  </si>
-  <si>
-    <t>a small room with a computer monitor in a futuristic spaceship. The walls, ceiling and floor are made of a transparent material that allows light to pass through. The walls are decorated with colorful stained glass depicting abstract shapes and patterns. The stained glass is reminiscent of the windows of a church and bathes the room in a mystical light. Soft colors</t>
-  </si>
-  <si>
-    <t>Gläserner_Konferenzraum1 (Serie 1/2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A large conference room in a futuristic spaceship. The walls, ceiling and floor are made of a transparent material that allows light to pass through. The walls are decorated with colorful stained glass depicting abstract shapes and patterns. The stained glass is reminiscent of the windows of a church and bathes the room in a mystical light. </t>
-  </si>
-  <si>
-    <t>Gläserner_Konferenzraum2 (Serie 2/2)</t>
-  </si>
-  <si>
-    <t>Gläserner_Entspannungsraum</t>
-  </si>
-  <si>
-    <t>a small room in a futuristic spaceship. The walls, ceiling and floor are made of a transparent material that allows light to pass through. The walls are decorated with colorful stained glass depicting abstract shapes and patterns. The stained glass is reminiscent of the windows of a church and bathes the room in a mystical light.</t>
-  </si>
-  <si>
-    <t>Gläsernes_Raumschiff2 (Serie 2/3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">broken glass effect, stunning, mythical, beautiful, a spaceship cockpit that looks like a organic, modern, colorful glass art, it's evening </t>
-  </si>
-  <si>
-    <t>Gläsernes_Schlafzimmer</t>
-  </si>
-  <si>
-    <t>a small room with a bed in a futuristic spaceship. The walls, ceiling and floor are made of a transparent material that allows light to pass through. The walls are decorated with colorful stained glass depicting abstract shapes and patterns. The stained glass is reminiscent of the windows of a church and bathes the room in a mystical light. Soft colors.</t>
-  </si>
-  <si>
-    <t>Gläserne_Röhre</t>
-  </si>
-  <si>
-    <t>The walls, ceiling and floor are made of a transparent material that allows light to pass through. The walls are decorated with colorful stained glass depicting abstract shapes and patterns. The stained glass is reminiscent of the windows of a church and bathes the room in a mystical light.</t>
+    <t>a fluid organic bionic chair designed by Ross Lovegrove with biomorphic features, very detailed biomimetic structure, placed in a spaceship room designed by Marcel Breuer in Bauhaus style, Dynamic Composition, gloomy atmosphere, foggy, misty, artificial light, experimental cinematography, photorealistic, wide angle sho</t>
+  </si>
+  <si>
+    <t>a mysterious monolith with bionic biomorphic features, appearing as colossal, luminescent sculpture that morph and shift shape placed into a bionic biomorphic landscape interior, Dynamic Composition, experimental cinematography, experimental film, photorealistic, wide angle shot</t>
+  </si>
+  <si>
+    <t>a mysterious landscape interior with bionic biomorphic features, appearing as colossal, luminescent sculpture that morph and shift shape, Dynamic Composition, experimental cinematography, experimental film, photorealistic, wide angle shot</t>
+  </si>
+  <si>
+    <t>a crew of astronauts discovering a mysterious monolith with bionic biomorphic features, appearing as colossal, luminescent sculpture that morph and shift shape placed on a rough surface of an unknown planet in space, Dynamic Composition, gloomy atmosphere, foggy, misty, artificial light, experimental cinematography, experimental film, photorealistic, wide angle shot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sculptural bionic biomimetic HAL9000 with intricate details placed in a minimalistic Bauhaus room designed by Marcel Breuer, luminous, ethereal, edgy, mysterious, misty, foggy, gloomy, cinematic, photorealistic, experimental film, wide angle shot a fluid organic bionic chair designed by Ross Lovegrove with biomorphic features, very detailed biomimetic structure, placed in a spaceship room designed by Marcel Breuer in Bauhaus style, Dynamic Composition, gloomy atmosphere, foggy, misty, artificial light, experimental cinematography, photorealistic, wide angle shot
+</t>
+  </si>
+  <si>
+    <t>sculptural bionic biomimetic HAL9000 with intricate details placed in a minimalistic Bauhaus room designed by Marcel Breuer, luminous, ethereal, edgy, mysterious, dawn, misty, foggy, gloomy atmosphere, cinematic, photorealistic, experimental film, wide angle shot</t>
+  </si>
+  <si>
+    <t>astronaut wearing a sculptural bionic biomimetic spacesuit and helmet with intricate details placed in a minimalistic Bauhaus room designed by Marcel Breuer, luminous, ethereal, edgy, mysterious, dawn, misty, foggy, gloomy atmosphere, cinematic, photorealistic, experimental film, wide angle shot</t>
+  </si>
+  <si>
+    <t>two astronauts facing each other and sitting in a spaceship capsule transformed into a bionic biomorphic abstract organic design by Ross Lovegrove with intricate details, view on the scene through a round window of the capsule, mysterious, gloomy, edgy, sculptural, cinematic, photorealistic</t>
+  </si>
+  <si>
+    <t>sculptural bionic biomimetic table with intricate details placed in a minimalistic Bauhaus room designed by Marcel Breuer, luminous, ethereal, edgy, mysterious, misty, foggy, gloomy, cinematic, photorealistic, experimental film, wide angle shot</t>
   </si>
 </sst>
 </file>
@@ -378,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -398,22 +314,31 @@
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
@@ -733,12 +658,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="36.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="40.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="46.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="18" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="36.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="40.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="46.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="42">
@@ -775,329 +700,331 @@
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="F3" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="8">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="8">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="8">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="8">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F7" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="8">
         <v>14</v>
       </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="7">
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="8">
+        <v>19</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="8">
+        <v>20</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="C10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="8">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="7">
+      <c r="C11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="8">
+        <v>22</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="8">
+        <v>26</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="7">
-        <v>19</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9" t="s">
+      <c r="F13" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="8">
+        <v>27</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="7">
+      <c r="C14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="8">
+        <v>34</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="8">
+        <v>49</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="7">
-        <v>23</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9" t="s">
+      <c r="F16" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="8">
+        <v>51</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="7">
+      <c r="F17" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="8">
+        <v>59</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="8">
+        <v>69</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="8">
+        <v>71</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="7">
-        <v>27</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9" t="s">
+      <c r="F20" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="8">
+        <v>86</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="7">
-        <v>27</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="F21" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
+      <c r="A22" s="8">
+        <v>93</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="7">
-        <v>27</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="7">
-        <v>27</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="7">
-        <v>27</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="7">
-        <v>27</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="7">
-        <v>29</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="7">
-        <v>42</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="7">
-        <v>42</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="7">
-        <v>66</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="7">
-        <v>76</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="7">
-        <v>137</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Text/Ludwig_Sarah.xlsx
+++ b/Text/Ludwig_Sarah.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>Timecode</t>
   </si>
@@ -294,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -342,6 +342,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -652,18 +658,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="36.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="40.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="46.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="19" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="20" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="20" width="36.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="20" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="40.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="20" width="46.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="42">
@@ -1010,21 +1016,107 @@
       </c>
       <c r="F21" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="8">
         <v>93</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="C22" s="11"/>
       <c r="D22" s="9"/>
       <c r="E22" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Text/Ludwig_Sarah.xlsx
+++ b/Text/Ludwig_Sarah.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t>Timecode</t>
   </si>
@@ -52,43 +52,88 @@
     <t>Szenen</t>
   </si>
   <si>
+    <t>Biomorphic Landscape (1)</t>
+  </si>
+  <si>
     <t>Sarah Ludwig</t>
   </si>
   <si>
     <t>a wide vast desert landscape with cliffs with biomimetic biomorphic bionic shapes emerging from the rough ground, intricate details, luminous, ethereal, edgy, sculptural, cinematic, photorealistic</t>
   </si>
   <si>
+    <t>Herd of Apes</t>
+  </si>
+  <si>
     <t>close up shot of a herd of apes sitting in a wide vast desert landscape with cliffs with biomimetic biomorphic bionic shapes emerging from the rough ground, intricate details, luminous, ethereal, edgy, sculptural, cinematic, photorealistic</t>
   </si>
   <si>
+    <t>Biomorphic Landscape (2)</t>
+  </si>
+  <si>
+    <t>Biomorphic Landscape (3)</t>
+  </si>
+  <si>
+    <t>Monolith</t>
+  </si>
+  <si>
+    <t>Biomorphic Landscape (4)</t>
+  </si>
+  <si>
+    <t>Bone</t>
+  </si>
+  <si>
     <t>Objekt</t>
   </si>
   <si>
+    <t>Spaceshuttle</t>
+  </si>
+  <si>
     <t>a modern futuristic spacecraft designed by Ross Lovegrove with intricate organic bionic biomorphic features structures and details floating in dark space, otherworldly looking, ethereal, Dynamic Composition, gloomy atmosphere, cinematic, typical science fiction color palette, wide angle shot</t>
   </si>
   <si>
+    <t>Grip Shoes</t>
+  </si>
+  <si>
     <t>abstract sculptural fluid bionic biomimetic space suit shoes with fine intricate details placed in a minimalistic Bauhaus room designed by Marcel Breuer, luminous, ethereal, edgy, mysterious, misty, foggy, gloomy, cinematic, photorealistic, experimental film, wide angle shot</t>
   </si>
   <si>
+    <t>Spaceship Corridor</t>
+  </si>
+  <si>
     <t>a wide corridor inside a minimalistic Bauhaus Style plane with seats to each side, a women standing in the middle wearing a fluid organic bionic suit and hat with biomorphic abstract otherworldly structure and intricate details designed by Ross Lovegrove, the women is looking directly into the camera, dynamic composition, gloomy atmosphere, foggy, misty, experimental cinematography, photorealistic, wide angle central shot, luminous, ethereal, edgy, sculptural, cinematic</t>
   </si>
   <si>
+    <t>Spaceship Interior</t>
+  </si>
+  <si>
     <t>a mysterious landscape interior with bionic biomorphic features, appearing as colossal, luminescent sculpture that morph and shift shape, Dynamic Composition, experimental cinematography, experimental film, photorealistic, wide angle shot,</t>
   </si>
   <si>
     <t>Objekte</t>
   </si>
   <si>
+    <t>Djinn Chair</t>
+  </si>
+  <si>
     <t>a fluid organic bionic chair designed by Ross Lovegrove with biomorphic features, very detailed biomimetic structure, placed in a spaceship room designed by Marcel Breuer in Bauhaus style, Dynamic Composition, gloomy atmosphere, foggy, misty, artificial light, experimental cinematography, photorealistic, wide angle sho</t>
   </si>
   <si>
     <t>a mysterious monolith with bionic biomorphic features, appearing as colossal, luminescent sculpture that morph and shift shape placed into a bionic biomorphic landscape interior, Dynamic Composition, experimental cinematography, experimental film, photorealistic, wide angle shot</t>
   </si>
   <si>
+    <t>Aries 1B</t>
+  </si>
+  <si>
     <t>a mysterious landscape interior with bionic biomorphic features, appearing as colossal, luminescent sculpture that morph and shift shape, Dynamic Composition, experimental cinematography, experimental film, photorealistic, wide angle shot</t>
   </si>
   <si>
+    <t>Monolith Discovery</t>
+  </si>
+  <si>
     <t>a crew of astronauts discovering a mysterious monolith with bionic biomorphic features, appearing as colossal, luminescent sculpture that morph and shift shape placed on a rough surface of an unknown planet in space, Dynamic Composition, gloomy atmosphere, foggy, misty, artificial light, experimental cinematography, experimental film, photorealistic, wide angle shot</t>
+  </si>
+  <si>
+    <t>HAL9000</t>
   </si>
   <si>
     <t xml:space="preserve">sculptural bionic biomimetic HAL9000 with intricate details placed in a minimalistic Bauhaus room designed by Marcel Breuer, luminous, ethereal, edgy, mysterious, misty, foggy, gloomy, cinematic, photorealistic, experimental film, wide angle shot a fluid organic bionic chair designed by Ross Lovegrove with biomorphic features, very detailed biomimetic structure, placed in a spaceship room designed by Marcel Breuer in Bauhaus style, Dynamic Composition, gloomy atmosphere, foggy, misty, artificial light, experimental cinematography, photorealistic, wide angle shot
@@ -101,10 +146,43 @@
     <t>astronaut wearing a sculptural bionic biomimetic spacesuit and helmet with intricate details placed in a minimalistic Bauhaus room designed by Marcel Breuer, luminous, ethereal, edgy, mysterious, dawn, misty, foggy, gloomy atmosphere, cinematic, photorealistic, experimental film, wide angle shot</t>
   </si>
   <si>
+    <t>Spaceship Room</t>
+  </si>
+  <si>
     <t>two astronauts facing each other and sitting in a spaceship capsule transformed into a bionic biomorphic abstract organic design by Ross Lovegrove with intricate details, view on the scene through a round window of the capsule, mysterious, gloomy, edgy, sculptural, cinematic, photorealistic</t>
   </si>
   <si>
+    <t>Sleeping Capsule</t>
+  </si>
+  <si>
     <t>sculptural bionic biomimetic table with intricate details placed in a minimalistic Bauhaus room designed by Marcel Breuer, luminous, ethereal, edgy, mysterious, misty, foggy, gloomy, cinematic, photorealistic, experimental film, wide angle shot</t>
+  </si>
+  <si>
+    <t>Spaceship Cockpit Interior</t>
+  </si>
+  <si>
+    <t>Visuals</t>
+  </si>
+  <si>
+    <t>Biomorphic Interior</t>
+  </si>
+  <si>
+    <t>EVA Pod</t>
+  </si>
+  <si>
+    <t>Biomorphic Architecture</t>
+  </si>
+  <si>
+    <t>Spacesuit</t>
+  </si>
+  <si>
+    <t>Corridor</t>
+  </si>
+  <si>
+    <t>Spacesuit Helmet</t>
+  </si>
+  <si>
+    <t>Biomorphic Indoor Landscape</t>
   </si>
 </sst>
 </file>
@@ -294,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -323,22 +401,16 @@
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
@@ -658,18 +730,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="19" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="20" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="36.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="20" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="40.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="20" width="46.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="18" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="36.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="40.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="46.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="42">
@@ -718,13 +790,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="11" t="s">
         <v>13</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="F3" s="9"/>
     </row>
@@ -736,11 +808,11 @@
         <v>11</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="11" t="s">
-        <v>14</v>
+      <c r="E4" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="F4" s="9"/>
     </row>
@@ -752,11 +824,11 @@
         <v>11</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="11" t="s">
-        <v>13</v>
+      <c r="E5" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="F5" s="9"/>
     </row>
@@ -768,11 +840,11 @@
         <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="11" t="s">
-        <v>13</v>
+      <c r="E6" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="F6" s="9"/>
     </row>
@@ -783,12 +855,12 @@
       <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14" t="s">
-        <v>13</v>
+      <c r="C7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="F7" s="9"/>
     </row>
@@ -799,12 +871,12 @@
       <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>10</v>
+      <c r="C8" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="11" t="s">
-        <v>13</v>
+      <c r="E8" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="F8" s="9"/>
     </row>
@@ -815,12 +887,12 @@
       <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="16" t="s">
-        <v>13</v>
+      <c r="C9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="F9" s="9"/>
     </row>
@@ -829,14 +901,14 @@
         <v>20</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="11" t="s">
-        <v>16</v>
+      <c r="E10" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="F10" s="9"/>
     </row>
@@ -845,14 +917,14 @@
         <v>22</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="11" t="s">
-        <v>17</v>
+      <c r="E11" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -863,12 +935,12 @@
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>10</v>
+      <c r="C12" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="11" t="s">
-        <v>18</v>
+      <c r="E12" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -879,12 +951,12 @@
       <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>10</v>
+      <c r="C13" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="11" t="s">
-        <v>19</v>
+      <c r="E13" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -893,14 +965,14 @@
         <v>27</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="11" t="s">
-        <v>21</v>
+      <c r="E14" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -909,14 +981,14 @@
         <v>34</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="11" t="s">
-        <v>22</v>
+      <c r="E15" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -925,14 +997,14 @@
         <v>49</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="11" t="s">
-        <v>23</v>
+      <c r="E16" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="F16" s="9"/>
     </row>
@@ -943,12 +1015,12 @@
       <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>10</v>
+      <c r="C17" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="11" t="s">
-        <v>24</v>
+      <c r="E17" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="F17" s="9"/>
     </row>
@@ -959,12 +1031,12 @@
       <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>10</v>
+      <c r="C18" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="11" t="s">
-        <v>25</v>
+      <c r="E18" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="F18" s="9"/>
     </row>
@@ -973,14 +1045,14 @@
         <v>69</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="11" t="s">
-        <v>26</v>
+      <c r="E19" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="F19" s="9"/>
     </row>
@@ -991,12 +1063,12 @@
       <c r="B20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>10</v>
+      <c r="C20" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="11" t="s">
-        <v>27</v>
+      <c r="E20" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="F20" s="9"/>
     </row>
@@ -1008,11 +1080,11 @@
         <v>11</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="11" t="s">
-        <v>28</v>
+      <c r="E21" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="F21" s="9"/>
     </row>
@@ -1021,102 +1093,198 @@
         <v>93</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="15">
+        <v>102</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="15">
+        <v>109</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="15">
+        <v>111</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="15">
+        <v>124</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="15">
+        <v>131</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="15">
+        <v>132</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="15">
+        <v>132</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="15">
+        <v>133</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="15">
+        <v>133</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="A32" s="15">
+        <v>134</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="15">
+        <v>134</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="15">
+        <v>138</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
+      <c r="A35" s="15">
+        <v>139</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Text/Ludwig_Sarah.xlsx
+++ b/Text/Ludwig_Sarah.xlsx
@@ -46,7 +46,7 @@
     <t>Pro Bild / for each image</t>
   </si>
   <si>
-    <t/>
+    <t>"BIO: 2023 Space Metamorphosis" transformiert das Produktionsdesign in ein bionisches Konzept, das mit dem streng geometrisierten Zukunftsbild des Originals bricht. Technologie und Innovation werden mit biomorphen Formen verbunden. Das Ergebnis sind hypermoderne, futuristische Objekte und Räume. Bionisches Design überträgt Strukturen aus der Natur auf die Technik, Funktion und Form.</t>
   </si>
   <si>
     <t>Szenen</t>
@@ -372,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -390,9 +390,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
@@ -736,12 +733,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="36.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="40.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="46.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="16" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="36.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="17" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="40.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="46.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="42">
@@ -778,513 +775,513 @@
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>9</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>14</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>19</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>20</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>22</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>22</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>26</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>27</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>34</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>49</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>51</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>59</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>69</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>71</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>86</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>93</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="15">
+      <c r="A23" s="14">
         <v>102</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="15">
+      <c r="A24" s="14">
         <v>109</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="16" t="s">
+      <c r="B24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="15">
+      <c r="A25" s="14">
         <v>111</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="16" t="s">
+      <c r="B25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="15">
+      <c r="A26" s="14">
         <v>124</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="16" t="s">
+      <c r="B26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="15">
+      <c r="A27" s="14">
         <v>131</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="16" t="s">
+      <c r="B27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="15">
+      <c r="A28" s="14">
         <v>132</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="16" t="s">
+      <c r="B28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="15">
+      <c r="A29" s="14">
         <v>132</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="16" t="s">
+      <c r="B29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="15">
+      <c r="A30" s="14">
         <v>133</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="15">
+      <c r="A31" s="14">
         <v>133</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="16" t="s">
+      <c r="B31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="15">
+      <c r="A32" s="14">
         <v>134</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="16" t="s">
+      <c r="B32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="15">
+      <c r="A33" s="14">
         <v>134</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="15">
+      <c r="A34" s="14">
         <v>138</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
-      <c r="A35" s="15">
+      <c r="A35" s="14">
         <v>139</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="16" t="s">
+      <c r="B35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Text/Ludwig_Sarah.xlsx
+++ b/Text/Ludwig_Sarah.xlsx
@@ -190,7 +190,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +214,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -240,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -368,6 +374,13 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -413,10 +426,10 @@
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1085,7 +1098,7 @@
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
       <c r="A22" s="7">
         <v>93</v>
       </c>
@@ -1269,7 +1282,7 @@
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="14">
         <v>139</v>
       </c>

--- a/Text/Ludwig_Sarah.xlsx
+++ b/Text/Ludwig_Sarah.xlsx
@@ -190,7 +190,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,12 +214,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -426,10 +420,10 @@
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
